--- a/dados_producao_intelectual/producao_intelectual.xlsx
+++ b/dados_producao_intelectual/producao_intelectual.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisa\Documents\GitHub\trabalho\anuario2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisa\Documents\GitHub\trabalho\anuario2020\dados_producao_intelectual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="7080" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="7080" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="prod_biblio" sheetId="12" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <sheet name="congresso_pibic" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">num_bolsas_pais!$A$1:$C$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">prod_art!$A$2:$B$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">num_bolsas_pais!$A$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">prod_art!$A$2:$B$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>Artigo em jornal ou em revista</t>
   </si>
@@ -51,24 +51,12 @@
     <t>Livros</t>
   </si>
   <si>
-    <t>Partitura Musical</t>
-  </si>
-  <si>
     <t>Trabalhos em anais</t>
   </si>
   <si>
     <t>Traduções</t>
   </si>
   <si>
-    <t>Outros</t>
-  </si>
-  <si>
-    <t>Apresentação de Trabalho</t>
-  </si>
-  <si>
-    <t>Cartas, Mapas ou similares</t>
-  </si>
-  <si>
     <t>Curso de curta duração</t>
   </si>
   <si>
@@ -81,51 +69,30 @@
     <t>Desenvolvimento de produto</t>
   </si>
   <si>
-    <t>Desenvolvimento de Técnica</t>
-  </si>
-  <si>
     <t>Editora</t>
   </si>
   <si>
-    <t>Manutenção de obra artística</t>
-  </si>
-  <si>
-    <t>Maquete</t>
-  </si>
-  <si>
     <t>Organização de eventos</t>
   </si>
   <si>
-    <t>Outro</t>
-  </si>
-  <si>
     <t>Patente</t>
   </si>
   <si>
     <t>Programa de rádio ou TV</t>
   </si>
   <si>
-    <t>Relatório de pesquisa</t>
-  </si>
-  <si>
     <t>Serviços Técnicos</t>
   </si>
   <si>
     <t>Artes cênicas</t>
   </si>
   <si>
-    <t>Artes visuais</t>
-  </si>
-  <si>
     <t>Música</t>
   </si>
   <si>
     <t>Outra produção cultural</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Modalidade</t>
   </si>
   <si>
@@ -138,12 +105,6 @@
     <t>Apoio a Participação/Realização de Eventos</t>
   </si>
   <si>
-    <t>Apoio a Periódicos Científicos</t>
-  </si>
-  <si>
-    <t>Apoio a Pesquisador Visitante</t>
-  </si>
-  <si>
     <t>Apoio a Projetos de Pesquisas</t>
   </si>
   <si>
@@ -168,9 +129,6 @@
     <t>Bolsas de Mestrado</t>
   </si>
   <si>
-    <t>Bolsas de Pesquisador/Especialista Visitante</t>
-  </si>
-  <si>
     <t>Bolsas de Pós-doutorado</t>
   </si>
   <si>
@@ -183,15 +141,6 @@
     <t>Total Geral</t>
   </si>
   <si>
-    <t>Graduação Sanduíche no Exterior</t>
-  </si>
-  <si>
-    <t>Doutorado no Exterior(3)</t>
-  </si>
-  <si>
-    <t>Doutorado Sanduíche no Exterior(4)</t>
-  </si>
-  <si>
     <t>Pós-Doutorado no Exterior</t>
   </si>
   <si>
@@ -316,14 +265,16 @@
   </si>
   <si>
     <t>Produção Artística</t>
+  </si>
+  <si>
+    <t>Doutorado Sanduíche no Exterior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4">
@@ -391,25 +342,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,17 +643,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B1" s="7">
         <v>2019</v>
@@ -736,8 +687,8 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
+      <c r="B5" s="5">
+        <v>4163</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -745,30 +696,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>4163</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="7">
         <v>13404</v>
       </c>
     </row>
@@ -781,9 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -792,10 +725,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -847,9 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -858,16 +789,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -895,7 +826,7 @@
         <v>705</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -909,7 +840,7 @@
         <v>945</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -936,7 +867,7 @@
       <c r="C6" s="5">
         <v>897</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>1144</v>
       </c>
     </row>
@@ -949,18 +880,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="25.5">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1012,18 +941,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="25.5">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1073,17 +1000,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5703125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7">
         <v>2019</v>
@@ -1091,137 +1018,81 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25.5">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5">
-        <v>496</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="25.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5">
-        <v>133</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5">
-        <v>36</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
-        <v>421</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2623</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7">
         <v>5818</v>
       </c>
     </row>
@@ -1232,22 +1103,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="9"/>
+    <col min="2" max="2" width="25.42578125" style="8"/>
     <col min="3" max="16384" width="25.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B1" s="7">
         <v>2019</v>
@@ -1255,7 +1124,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5">
         <v>91</v>
@@ -1263,33 +1132,25 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2">
         <v>190</v>
       </c>
     </row>
@@ -1301,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1317,243 +1178,210 @@
   <sheetData>
     <row r="1" spans="1:3" ht="38.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>8500</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3700</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3700</v>
+        <v>46</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4000</v>
+        <v>109</v>
+      </c>
+      <c r="C7" s="9">
+        <v>31500</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5">
-        <v>46</v>
-      </c>
-      <c r="C8" s="10">
-        <v>15100</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5">
-        <v>109</v>
-      </c>
-      <c r="C9" s="10">
-        <v>31500</v>
+        <v>476</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4800</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5">
-        <v>47</v>
-      </c>
-      <c r="C10" s="10">
-        <v>9000</v>
+        <v>62</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5">
-        <v>476</v>
-      </c>
-      <c r="C11" s="10">
-        <v>4800</v>
+        <v>89</v>
+      </c>
+      <c r="C11" s="9">
+        <v>21000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5">
-        <v>62</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1200</v>
+        <v>57</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10200</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5">
-        <v>89</v>
-      </c>
-      <c r="C13" s="10">
-        <v>21000</v>
+        <v>109</v>
+      </c>
+      <c r="C13" s="9">
+        <v>37600</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="5">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9">
+        <v>31500</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5">
-        <v>57</v>
-      </c>
-      <c r="C15" s="10">
-        <v>10200</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="9">
+        <v>16100</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5">
-        <v>109</v>
-      </c>
-      <c r="C16" s="10">
-        <v>37600</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10900</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5">
-        <v>64</v>
-      </c>
-      <c r="C17" s="10">
-        <v>31500</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2200</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5">
-        <v>30</v>
-      </c>
-      <c r="C18" s="10">
-        <v>16100</v>
+        <v>4</v>
+      </c>
+      <c r="C18" s="9">
+        <v>14300</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>44</v>
+      <c r="A19" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="5">
-        <v>25</v>
-      </c>
-      <c r="C19" s="10">
-        <v>10900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="5">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="5">
-        <v>4</v>
-      </c>
-      <c r="C21" s="10">
-        <v>14300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="5">
         <v>1152</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C19" s="9">
         <v>223100</v>
       </c>
     </row>
@@ -1564,9 +1392,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1577,100 +1405,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25">
-      <c r="A1" s="12" t="s">
-        <v>28</v>
+      <c r="A1" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
+        <v>75</v>
+      </c>
+      <c r="B2" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>39130</v>
+      </c>
+      <c r="D2" s="13">
+        <v>6500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="25.5">
-      <c r="A4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="6">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10">
-        <v>39130</v>
-      </c>
-      <c r="D4" s="6">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="6">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C3" s="13">
         <v>37926</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D3" s="13">
         <v>6300</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C4" s="14">
         <v>77056</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D4" s="14">
         <v>12800</v>
       </c>
     </row>
@@ -1681,11 +1467,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1694,15 +1478,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
@@ -1710,7 +1494,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -1718,57 +1502,25 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1790,15 +1542,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5">
         <v>141</v>
@@ -1806,7 +1558,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5">
         <v>158</v>
@@ -1814,7 +1566,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5">
         <v>89</v>
@@ -1822,7 +1574,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5">
         <v>87</v>
@@ -1830,7 +1582,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5">
         <v>27</v>
@@ -1838,7 +1590,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5">
         <v>50</v>
@@ -1846,7 +1598,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5">
         <v>57</v>
@@ -1854,7 +1606,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5">
         <v>13</v>
@@ -1862,7 +1614,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
@@ -1870,7 +1622,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2">
         <v>625</v>
@@ -1896,15 +1648,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>67</v>
+      <c r="A2" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="5">
         <v>3047</v>
@@ -1912,7 +1664,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5">
         <v>476</v>
@@ -1920,7 +1672,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5">
         <v>316</v>
@@ -1928,15 +1680,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5">
         <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
-        <v>68</v>
+      <c r="A6" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B6" s="2">
         <v>1144</v>
@@ -1944,15 +1696,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="14">
+        <v>52</v>
+      </c>
+      <c r="B7" s="11">
         <v>2454</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="25.5">
       <c r="A8" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5">
         <v>11</v>
@@ -1960,9 +1712,9 @@
     </row>
     <row r="9" spans="1:2" ht="25.5">
       <c r="A9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="14">
+        <v>54</v>
+      </c>
+      <c r="B9" s="11">
         <v>2449</v>
       </c>
     </row>
@@ -1985,30 +1737,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="12" t="s">
-        <v>72</v>
+      <c r="A1" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>68</v>
+      <c r="F1" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5">
         <v>2015</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="11">
         <v>2255</v>
       </c>
       <c r="C2" s="5">
@@ -2019,14 +1771,14 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5">
         <v>2016</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>2402</v>
       </c>
       <c r="C3" s="5">
@@ -2044,7 +1796,7 @@
       <c r="A4" s="5">
         <v>2017</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>2801</v>
       </c>
       <c r="C4" s="5">
@@ -2062,11 +1814,11 @@
       <c r="A5" s="5">
         <v>2018</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>2880</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D5" s="5">
         <v>250</v>
@@ -2080,7 +1832,7 @@
       <c r="A6" s="5">
         <v>2019</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>3047</v>
       </c>
       <c r="C6" s="5">
@@ -2090,7 +1842,7 @@
         <v>316</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F6" s="5">
         <v>792</v>

--- a/dados_producao_intelectual/producao_intelectual.xlsx
+++ b/dados_producao_intelectual/producao_intelectual.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisa\Documents\GitHub\trabalho\anuario2020\dados_producao_intelectual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\anuario2020\dados_producao_intelectual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="7080" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="7080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="prod_biblio" sheetId="12" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>Outra produção cultural</t>
   </si>
   <si>
-    <t>Modalidade</t>
-  </si>
-  <si>
     <t>Número de Bolsas</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Investimento (US$)</t>
   </si>
   <si>
-    <t>Área</t>
-  </si>
-  <si>
     <t>Grupos</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>Multidisplinar</t>
   </si>
   <si>
-    <t>Descrição</t>
-  </si>
-  <si>
     <t>Qtd.</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
     <t>Trabalhos Apresentados nos Congressos do PIBIC</t>
   </si>
   <si>
-    <t>Ano</t>
-  </si>
-  <si>
     <t>926*</t>
   </si>
   <si>
@@ -258,26 +246,38 @@
     <t>Trabalhos</t>
   </si>
   <si>
-    <t>Produção Bibliográfica</t>
-  </si>
-  <si>
-    <t>Produção Técnica</t>
-  </si>
-  <si>
-    <t>Produção Artística</t>
-  </si>
-  <si>
     <t>Doutorado Sanduíche no Exterior</t>
+  </si>
+  <si>
+    <t>Unidade / Ano</t>
+  </si>
+  <si>
+    <t>Unidade / Descrição</t>
+  </si>
+  <si>
+    <t>Unidade / Área</t>
+  </si>
+  <si>
+    <t>Unidade / Modalidade</t>
+  </si>
+  <si>
+    <t>Unidade / Produção Artística</t>
+  </si>
+  <si>
+    <t>Unidade / Produção Técnica</t>
+  </si>
+  <si>
+    <t>Unidade / Produção Bibliográfica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +300,13 @@
       <sz val="10"/>
       <name val="Unb office"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,8 +325,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -345,9 +353,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -363,8 +368,12 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,7 +392,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +430,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -493,7 +502,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -646,14 +655,14 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="25.5">
       <c r="A1" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="7">
         <v>2019</v>
@@ -700,8 +709,8 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>46</v>
+      <c r="A7" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="7">
         <v>13404</v>
@@ -723,12 +732,12 @@
     <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="25.5">
       <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -787,18 +796,18 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="25.5">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -826,7 +835,7 @@
         <v>705</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -840,7 +849,7 @@
         <v>945</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -867,7 +876,7 @@
       <c r="C6" s="5">
         <v>897</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>1144</v>
       </c>
     </row>
@@ -886,10 +895,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="25.5">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -941,16 +950,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="25.5">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1002,15 +1011,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5703125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="7">
         <v>2019</v>
@@ -1089,8 +1096,8 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
-        <v>46</v>
+      <c r="A11" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="7">
         <v>5818</v>
@@ -1114,9 +1121,9 @@
     <col min="3" max="16384" width="25.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="25.5">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7">
         <v>2019</v>
@@ -1147,8 +1154,8 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>46</v>
+      <c r="A5" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>190</v>
@@ -1164,224 +1171,224 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B2:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38.25">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="14">
         <v>8500</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="14">
         <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5">
         <v>11</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="14">
         <v>3700</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="14">
         <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>46</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="14">
         <v>15100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>109</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="14">
         <v>31500</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>47</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="14">
         <v>9000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5">
         <v>476</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="14">
         <v>4800</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5">
         <v>62</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="14">
         <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5">
         <v>89</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="14">
         <v>21000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5">
         <v>57</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="14">
         <v>10200</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5">
         <v>109</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="14">
         <v>37600</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5">
         <v>64</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="14">
         <v>31500</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
         <v>30</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="14">
         <v>16100</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5">
         <v>25</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="14">
         <v>10900</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="14">
         <v>2200</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="14">
         <v>14300</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5">
         <v>1152</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="14">
         <v>223100</v>
       </c>
     </row>
@@ -1405,58 +1412,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6">
         <v>6</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>39130</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>6500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>37926</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>6300</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
         <v>9</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>77056</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>12800</v>
       </c>
     </row>
@@ -1478,15 +1485,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
@@ -1494,7 +1501,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -1502,7 +1509,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1510,7 +1517,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -1518,7 +1525,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
@@ -1542,15 +1549,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5">
         <v>141</v>
@@ -1558,7 +1565,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5">
         <v>158</v>
@@ -1566,7 +1573,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5">
         <v>89</v>
@@ -1574,7 +1581,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5">
         <v>87</v>
@@ -1582,7 +1589,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="5">
         <v>27</v>
@@ -1590,7 +1597,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5">
         <v>50</v>
@@ -1598,7 +1605,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5">
         <v>57</v>
@@ -1606,7 +1613,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5">
         <v>13</v>
@@ -1614,7 +1621,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
@@ -1622,7 +1629,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2">
         <v>625</v>
@@ -1637,9 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1648,15 +1653,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>50</v>
+      <c r="A2" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="5">
         <v>3047</v>
@@ -1664,7 +1669,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5">
         <v>476</v>
@@ -1672,7 +1677,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5">
         <v>316</v>
@@ -1680,15 +1685,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5">
         <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>51</v>
+      <c r="A6" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B6" s="2">
         <v>1144</v>
@@ -1696,15 +1701,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="11">
+        <v>49</v>
+      </c>
+      <c r="B7" s="10">
         <v>2454</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="25.5">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="5">
         <v>11</v>
@@ -1712,9 +1717,9 @@
     </row>
     <row r="9" spans="1:2" ht="25.5">
       <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="11">
+        <v>51</v>
+      </c>
+      <c r="B9" s="10">
         <v>2449</v>
       </c>
     </row>
@@ -1727,9 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="C1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1737,30 +1740,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="10" t="s">
-        <v>55</v>
+      <c r="A1" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5">
         <v>2015</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>2255</v>
       </c>
       <c r="C2" s="5">
@@ -1771,14 +1774,14 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5">
         <v>2016</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>2402</v>
       </c>
       <c r="C3" s="5">
@@ -1796,7 +1799,7 @@
       <c r="A4" s="5">
         <v>2017</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>2801</v>
       </c>
       <c r="C4" s="5">
@@ -1814,11 +1817,11 @@
       <c r="A5" s="5">
         <v>2018</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>2880</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5">
         <v>250</v>
@@ -1832,7 +1835,7 @@
       <c r="A6" s="5">
         <v>2019</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>3047</v>
       </c>
       <c r="C6" s="5">
@@ -1842,7 +1845,7 @@
         <v>316</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" s="5">
         <v>792</v>
